--- a/StructureDefinition-ext-R5-CoverageEligibilityResponse.insurance.xlsx
+++ b/StructureDefinition-ext-R5-CoverageEligibilityResponse.insurance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="348">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -406,7 +406,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Coverage|0.0.1-snapshot-3|Coverage|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Coverage|Coverage)
 </t>
   </si>
   <si>
@@ -559,15 +559,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Benefit categories such as: oral, medical, vision etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-benefitcategory-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:item.extension:productOrService</t>
   </si>
   <si>
@@ -602,12 +593,6 @@
     <t>Extension.extension:item.extension:productOrService.value[x]</t>
   </si>
   <si>
-    <t>Allowable service and product codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-service-uscls-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:item.extension:modifier</t>
   </si>
   <si>
@@ -642,12 +627,6 @@
     <t>Extension.extension:item.extension:modifier.value[x]</t>
   </si>
   <si>
-    <t>Item type or modifiers codes, eg for Oral whether the treatment is cosmetic or associated with TMJ, or an appliance was lost or stolen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-claim-modifiers-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:item.extension:provider</t>
   </si>
   <si>
@@ -679,7 +658,7 @@
     <t>Extension.extension:item.extension:provider.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -813,12 +792,6 @@
     <t>Extension.extension:item.extension:network.value[x]</t>
   </si>
   <si>
-    <t>Code to classify in or out of network services.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-benefit-network-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:item.extension:unit</t>
   </si>
   <si>
@@ -850,12 +823,6 @@
     <t>Extension.extension:item.extension:unit.value[x]</t>
   </si>
   <si>
-    <t>Unit covered/serviced - individual or family.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-benefit-unit-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:item.extension:term</t>
   </si>
   <si>
@@ -887,12 +854,6 @@
     <t>Extension.extension:item.extension:term.value[x]</t>
   </si>
   <si>
-    <t>Coverage unit - annual, lifetime.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-benefit-term-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:item.extension:benefit</t>
   </si>
   <si>
@@ -956,12 +917,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Deductable, visits, co-pay, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-benefit-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:item.extension:benefit.extension:allowed</t>
@@ -1113,12 +1068,6 @@
   </si>
   <si>
     <t>Extension.extension:item.extension:authorizationSupporting.value[x]</t>
-  </si>
-  <si>
-    <t>Type of supporting information to provide with a preauthorization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-coverageeligibilityresponse-ex-auth-support-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:item.extension:authorizationUrl</t>
@@ -1508,8 +1457,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="108.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="78.8203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4313,13 +4262,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4357,13 +4306,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4388,16 +4337,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4466,7 +4415,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>163</v>
@@ -4569,7 +4518,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>165</v>
@@ -4674,7 +4623,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>167</v>
@@ -4717,7 +4666,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4779,7 +4728,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>170</v>
@@ -4808,13 +4757,13 @@
         <v>171</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4840,13 +4789,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4884,13 +4833,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4915,16 +4864,16 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4993,7 +4942,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>163</v>
@@ -5096,7 +5045,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>165</v>
@@ -5201,7 +5150,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>167</v>
@@ -5244,7 +5193,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5306,7 +5255,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>170</v>
@@ -5335,13 +5284,13 @@
         <v>171</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5367,13 +5316,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5411,13 +5360,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5442,14 +5391,14 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5518,7 +5467,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>163</v>
@@ -5621,7 +5570,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>165</v>
@@ -5726,7 +5675,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>167</v>
@@ -5769,7 +5718,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5831,7 +5780,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>170</v>
@@ -5857,13 +5806,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5934,13 +5883,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5965,14 +5914,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6041,7 +5990,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>163</v>
@@ -6144,7 +6093,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>165</v>
@@ -6249,7 +6198,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>167</v>
@@ -6292,7 +6241,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6354,7 +6303,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>170</v>
@@ -6383,10 +6332,10 @@
         <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6457,13 +6406,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6488,16 +6437,16 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6566,7 +6515,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>163</v>
@@ -6669,7 +6618,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>165</v>
@@ -6774,7 +6723,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>167</v>
@@ -6817,7 +6766,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6879,7 +6828,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>170</v>
@@ -6908,13 +6857,13 @@
         <v>88</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6984,13 +6933,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7015,16 +6964,16 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7093,7 +7042,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>163</v>
@@ -7196,7 +7145,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>165</v>
@@ -7301,7 +7250,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>167</v>
@@ -7344,7 +7293,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7406,7 +7355,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>170</v>
@@ -7435,13 +7384,13 @@
         <v>88</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7511,13 +7460,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7542,14 +7491,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7618,7 +7567,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>163</v>
@@ -7721,7 +7670,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>165</v>
@@ -7826,7 +7775,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>167</v>
@@ -7869,7 +7818,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7931,7 +7880,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>170</v>
@@ -7960,10 +7909,10 @@
         <v>171</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7990,13 +7939,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8034,13 +7983,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8065,14 +8014,14 @@
         <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8141,7 +8090,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>163</v>
@@ -8244,7 +8193,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>165</v>
@@ -8349,7 +8298,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>167</v>
@@ -8392,7 +8341,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8454,7 +8403,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>170</v>
@@ -8483,10 +8432,10 @@
         <v>171</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8513,13 +8462,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -8557,13 +8506,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8588,14 +8537,14 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8664,7 +8613,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>163</v>
@@ -8767,7 +8716,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>165</v>
@@ -8872,7 +8821,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>167</v>
@@ -8915,7 +8864,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8977,7 +8926,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>170</v>
@@ -9006,10 +8955,10 @@
         <v>171</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9036,13 +8985,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -9080,13 +9029,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9111,14 +9060,14 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9187,7 +9136,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>163</v>
@@ -9290,7 +9239,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>165</v>
@@ -9393,13 +9342,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>165</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9427,13 +9376,13 @@
         <v>158</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9502,10 +9451,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9605,10 +9554,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9710,10 +9659,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9753,7 +9702,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -9815,10 +9764,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9847,10 +9796,10 @@
         <v>158</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -9876,13 +9825,13 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -9920,13 +9869,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>165</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -9951,14 +9900,14 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10027,10 +9976,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10130,10 +10079,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10235,10 +10184,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10278,7 +10227,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -10340,10 +10289,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10366,13 +10315,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -10443,13 +10392,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>165</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>77</v>
@@ -10474,14 +10423,14 @@
         <v>94</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -10550,10 +10499,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10653,10 +10602,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10758,10 +10707,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10801,7 +10750,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>77</v>
@@ -10863,10 +10812,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10889,13 +10838,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -10966,7 +10915,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>167</v>
@@ -11009,7 +10958,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11071,7 +11020,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>170</v>
@@ -11097,13 +11046,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11174,13 +11123,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11205,14 +11154,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11281,7 +11230,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>163</v>
@@ -11384,7 +11333,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>165</v>
@@ -11489,7 +11438,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>167</v>
@@ -11532,7 +11481,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11594,7 +11543,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>170</v>
@@ -11623,10 +11572,10 @@
         <v>137</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11697,13 +11646,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11728,14 +11677,14 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11804,7 +11753,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>163</v>
@@ -11907,7 +11856,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>165</v>
@@ -12012,7 +11961,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>167</v>
@@ -12055,7 +12004,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12117,7 +12066,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>170</v>
@@ -12146,10 +12095,10 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12176,13 +12125,13 @@
         <v>77</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>77</v>
@@ -12220,13 +12169,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12251,14 +12200,14 @@
         <v>94</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12327,7 +12276,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>163</v>
@@ -12430,7 +12379,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>165</v>
@@ -12535,7 +12484,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>167</v>
@@ -12578,7 +12527,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12640,7 +12589,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>170</v>
@@ -12669,10 +12618,10 @@
         <v>115</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12743,7 +12692,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>114</v>
@@ -12786,7 +12735,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12848,7 +12797,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>123</v>
@@ -12874,13 +12823,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13082,13 +13031,13 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
